--- a/docs/tabla.xlsx
+++ b/docs/tabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Facultad\2019\7512 Tarela\7512-Tarela-TP1-2019-1C\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86F68D-3F8D-40D4-BA29-84274E960ED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FCEA22-F6AA-49D1-B77A-912163912429}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85743995-5700-4CBA-BBF0-C44AD4BA09E3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{85743995-5700-4CBA-BBF0-C44AD4BA09E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -149,8 +149,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -184,8 +184,8 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -197,22 +197,22 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="164" formatCode="0.00000000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000000"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -235,12 +235,12 @@
   <autoFilter ref="A1:I2" xr:uid="{C6E15D9B-F5BF-4AC8-A538-4F5C5DC33538}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D241A368-6B0D-467B-B7DA-F9AD383C98F8}" name="Pot" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{412BDE94-17E6-40C4-A40C-B5365093765A}" name="CU" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{412BDE94-17E6-40C4-A40C-B5365093765A}" name="CU" dataDxfId="6">
       <calculatedColumnFormula>1200*Tabla2[[#This Row],[TC]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DECAE7F6-CA70-4EAB-A30A-A447B9AAFAEB}" name="TC" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DECAE7F6-CA70-4EAB-A30A-A447B9AAFAEB}" name="TC" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{E9CA82F4-2035-4509-B4A4-3D0BAA7339B7}" name="NP"/>
-    <tableColumn id="5" xr3:uid="{BB4F93AE-858A-4C81-B32E-5CCBBC341657}" name="FU" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{BB4F93AE-858A-4C81-B32E-5CCBBC341657}" name="FU" dataDxfId="4">
       <calculatedColumnFormula>(0.18*Tabla2[[#This Row],[NP]])/100000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{291F620E-5CC7-435E-BD5E-CFE586C19881}" name="Celec" dataDxfId="3"/>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59032A18-6CC8-44AF-9650-70BFE231AF03}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2F5868-0994-4161-921E-7A91B652A770}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
